--- a/Documentations/Bit_Stream_Processor_Test_Cases.xlsx
+++ b/Documentations/Bit_Stream_Processor_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hruy1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CE45DD-38B2-48D9-850A-4BBCF42138D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37767E2-0C51-4330-A5EF-FEC4D70D9C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,282 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>waseem waseem</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{9479E038-0EA4-4FB1-BB2B-16542DB2FB72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+formating mismatch</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{7E4DB36E-5899-48EA-AF3D-B7FE6B9E8C89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional: Missing 'i_cen' = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{88DA3A0B-1100-4A84-9984-8787386555F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Typo (are are)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{14DE4008-B8FD-4EEB-8011-847DEC31FC8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional: Missing 'i_cen' = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{18D9A034-DD08-4462-B1A5-6823D9BE351A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Set to 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{9876AAAF-4D54-4D35-8EBA-4126B62A4DC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+no 'i_cen' = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{E3942D44-AAA3-404E-A311-A3622A0B3417}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+= 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{9B3A15A0-00CA-434B-8335-CE5EBE3CA838}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+or not and</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B539A532-DA1F-457F-B05B-912A644875AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+or not and</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{27F3D6CB-6199-4375-87B3-1434420F0BAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rephrase</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{F7912C44-BF38-4945-A3D4-0657C4A8798D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>waseem waseem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+typo 'o_can_ready'</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="290">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -113,17 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Set 'i_reset' to 1 for 10 ns
-2.Check ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 
-'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready' 
-are set to 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BSP_04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,29 +395,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o_config' and 'o_tx_bit' are
-are set to 1 when 'i_reset' is set to 1 or 'i_cen' is set to 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Set 'i_reset' to 1 for 10 ns
-2.Check 'o_config' and 'o_tx_bit'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_config' and 'o_tx_bit' are set to 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BSP_05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BSP_TC_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘o_busy_can’  is set to 1 when 'i_reset' is set to 1 or 'i_cen' is set to 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">‘o_busy_can’ = 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BSP_06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,41 +420,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘o_rec'[7:0] and 'o_tec'[7:0] are set to 0s when 'i_reset' is set to 1 and 'i_cen' is set to 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set 'i_reset' to 1 for 10 ns
-2. Check ‘o_rec’[7:0] and 'o_tec'[7:0]
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘o_rec’[7:0] and 'o_tec'[7:0] are 
-set to 0s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BSP_07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BSP_TC_07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">‘o_estat’ [1:0] is set to '01' when  'i_reset' is set to 1 and 'i_cen' is set to 0
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set 'i_reset' to 1 for 10 ns
-2. Check ‘o_estat’ [1:0]
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘o_estat’ [1:0] is set to '01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,18 +455,6 @@
   </si>
   <si>
     <t>BSP_TC_09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘o_busy_can’ is set to 1 
-when 'i_reset' is set to 0 and 'i_cen' is set to 1 or
- the module receives data from ‘i_rx_bit’, then ‘o_bbsy’ is set to 1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 'o_busy_can' =1
-2. 'o_bbsy' = 1
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,25 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Set 'i_reset' = 0 and 'i_cen' =1 
-    Set 'i_rx_bit' =0
-    Set 'i_lback' =0
-    Set 'i_sleep' =0
-    Check 'o_busy_can'
-2. Set 'i_rx_bit' =0 
-   Check 'o_bbsy'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set 'i_reset' = 0 and 'i_cen' =1 
-    Set 'i_rx_bit' =0
-    Set 'i_lback' =0
-    Set 'i_sleep' =0
-2. Set 'i_rx_bit' =0 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Set 'i_reset' = 0 , 'i_cen' =1 , 'i_lback' = 0 and 'i_sleep' =0</t>
   </si>
   <si>
@@ -1882,6 +2062,146 @@
   </si>
   <si>
     <t>Check if 'o_estat'[1:0] = 2'b10 when 'o_rec'=256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_reset' = 1</t>
+  </si>
+  <si>
+    <t>1.   Set'i_send_data'[127:0] =
+128'h0000_0000_0000_0001_0000_0001_0000_0014
+2. Set 'i_reset' =0
+    Set 'i_lback' =0
+    Set 'i_sleep' =0
+    Set 'i_send_en' =1
+    Set 'i_cen' =1 
+ all on the rising  edge of 'i_samp_tick' and 'o_busy_can' = 0
+    'i_rx_bit' received data with incorrect crc field 'x4A088251C13F' serially on the rising edge of 'i_samp_tick' 
+3. Check ‘o_crcer’</t>
+  </si>
+  <si>
+    <t>o_config' and 'o_tx_bit' 
+are set to 1 when 'i_reset' is set to 1 or 'i_cen' is set to 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Set 'i_reset' to 1 for 10 ns
+2.Check ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready'
+3. Set 'i_reset' to 0 and 'i_cen' to 1
+4..Check ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 
+'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready' 
+are set to 0 at step 2 and 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Set 'i_reset' to 1 for 10 ns
+2.Check 'o_config' and 'o_tx_bit'
+3. Set 'i_reset' to 0 and 'i_cen' to 1
+4.Check 'o_config' and 'o_tx_bit'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_config' and 'o_tx_bit' are set to 1 at 
+stpe 2 and 4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘o_busy_can’  is set to 1 when 'i_reset' is set to 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘o_busy_can’ = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘o_rec'[7:0] and 'o_tec'[7:0] are set to 0s when 'i_reset' is set to 1 or 'i_cen' is set to 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+If 'i_reset' is set to 0 and 'i_cen' is set to 1 and either ‘o_busy_can’ is set to 1  or
+ the module receives data from ‘i_rx_bit’, then ‘o_bbsy’ is set to 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Set 'i_reset' = 0 and 'i_cen' =1 
+    Set 'i_rx_bit' =1
+    Set 'i_lback' =0
+    Set 'i_sleep' =0
+2. Check 'o_bbsy' when 'o_busy_can' =0
+3. Set 'i_reset' = 1 for 10 ns;
+4. Set 'i_reset' = 0 and 'i_cen' =1 
+    Set 'i_rx_bit' =0
+    Set 'i_lback' =0
+    Set 'i_sleep' =0
+5. Check 'o_bbsy'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set 'i_reset' = 0 and 'i_cen' =1 
+    Set 'i_rx_bit' =1
+    Set 'i_lback' =0
+    Set 'i_sleep' =0
+2. Check 'o_bbsy' when 'o_busy_can' =0
+3. Set 'i_reset' = 1 for 10 ns;
+4. Set 'i_reset' = 0 and 'i_cen' =1 
+    Set 'i_rx_bit' =0
+    Set 'i_lback' =0
+    Set 'i_sleep' =0
+   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if 'o_bbsy' = 1 at step 2 and step 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">‘o_estat’ [1:0] is set to '01' when  'i_reset' is set to 1 or 'i_cen' is set to 0
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">‘o_rec’[7:0] and 'o_tec'[7:0] are 
+set to 0s at step 2 and 4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 'i_reset' = 1
+3. 'i_reset' to 0 and 'i_cen' to 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.'i_reset' = 1
+3. Set 'i_reset' to 0 and 'i_cen' to 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 'i_reset' = 1
+3.'i_cen'=0 and 'i_reset' = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Set 'i_reset' to 1 for 10 ns
+2. Check ‘o_rec’[7:0] and 'o_tec'[7:0]
+3. Set 'i_reset' to 0
+    Set 'i_cen' to 0
+4.Check ‘o_rec’[7:0] and 'o_tec'[7:0]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘o_estat’ [1:0] is set to '01' at step 2 and 4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Set 'i_reset' to 1 for 10 ns
+2. Check ‘o_estat’ [1:0]
+3. Set 'i_reset' to 0 and 'i_cen' to 0
+4. Check ‘o_estat’ [1:0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1889,7 +2209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1922,18 +2242,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1956,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1966,12 +2291,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2002,12 +2321,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2292,21 +2608,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
     <col min="5" max="5" width="44.9140625" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" customWidth="1"/>
     <col min="8" max="8" width="10.9140625" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
@@ -2350,13 +2666,13 @@
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2367,962 +2683,963 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="245.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="131" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="169" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="93.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="156.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>44</v>
+      <c r="C8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="245" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="122" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="264.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="106" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="80.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="113.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="177.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="234" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="296.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="259" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="B22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="177.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="F22" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="244" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="B23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="231.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="283" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="242" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="254.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="238.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="281" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="218.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="300.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="310.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="233.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="279" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="265" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="240.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="299" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="381.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="382" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="337" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="376" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="297" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="366" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="320.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="377" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="302" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="351.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="306.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="234" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="296.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="259" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="228" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="244" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="231.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="283" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="242" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="254.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="238.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="281" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="218.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="300.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="310.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="233.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="279" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="265" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="240.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="299" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="381.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="382" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="337" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="376" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="297" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="366" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="320.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="377" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="302" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="351.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="306.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentations/Bit_Stream_Processor_Test_Cases.xlsx
+++ b/Documentations/Bit_Stream_Processor_Test_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hruy1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37767E2-0C51-4330-A5EF-FEC4D70D9C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D9BD14-60C2-499A-ADE5-8C7642F79849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2085,23 +2085,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Set 'i_reset' to 1 for 10 ns
-2.Check ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready'
-3. Set 'i_reset' to 0 and 'i_cen' to 1
-4..Check ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 
 'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready' 
 are set to 0 at step 2 and 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Set 'i_reset' to 1 for 10 ns
-2.Check 'o_config' and 'o_tx_bit'
-3. Set 'i_reset' to 0 and 'i_cen' to 1
-4.Check 'o_config' and 'o_tx_bit'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2167,16 +2153,6 @@
   <si>
     <t xml:space="preserve">‘o_rec’[7:0] and 'o_tec'[7:0] are 
 set to 0s at step 2 and 4 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 'i_reset' = 1
-3. 'i_reset' to 0 and 'i_cen' to 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.'i_reset' = 1
-3. Set 'i_reset' to 0 and 'i_cen' to 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2202,6 +2178,30 @@
 2. Check ‘o_estat’ [1:0]
 3. Set 'i_reset' to 0 and 'i_cen' to 0
 4. Check ‘o_estat’ [1:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Set 'i_reset' to 1 for 10 ns
+2.Check ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready'
+3. Set 'i_reset' to 0 and 'i_cen' to 0
+4..Check ‘o_acker’, 'o_berr','o_ster', 'o_fmer', 'o_crcer', 'o_bbsy', 'o_bidle', 'o_normal', 'o_txok', 'o_arblst', 'o_error', 'o_bsoff', 'o_sleep', 'o_lback', 'o_wakeup', and 'o_can_ready'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Set 'i_reset' to 1 for 10 ns
+2.Check 'o_config' and 'o_tx_bit'
+3. Set 'i_reset' to 0 and 'i_cen' to 0
+4.Check 'o_config' and 'o_tx_bit'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 'i_reset' = 1
+3. 'i_reset' to 0 and 'i_cen' to 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.'i_reset' = 1
+3. Set 'i_reset' to 0 and 'i_cen' to 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2611,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2707,13 +2707,13 @@
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2727,13 +2727,13 @@
         <v>270</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="131" customHeight="1" x14ac:dyDescent="0.3">
@@ -2744,7 +2744,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>26</v>
@@ -2753,7 +2753,7 @@
         <v>268</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="169" customHeight="1" x14ac:dyDescent="0.3">
@@ -2764,16 +2764,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="156.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2784,16 +2784,16 @@
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="245" customHeight="1" x14ac:dyDescent="0.3">
@@ -2824,16 +2824,16 @@
         <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="106" customHeight="1" x14ac:dyDescent="0.3">
